--- a/Rendu/Données/Données_R6.xlsx
+++ b/Rendu/Données/Données_R6.xlsx
@@ -815,7 +815,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -856,13 +856,37 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -874,10 +898,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -905,9 +931,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Neutre" xfId="2" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Satisfaisant" xfId="1" builtinId="26"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1185,10 +1218,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:Q136"/>
+  <dimension ref="A1:Q136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A103" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E118" sqref="E118"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B53" sqref="B53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1208,12 +1241,17 @@
     <col min="13" max="16384" width="11.42578125" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="15"/>
+    </row>
+    <row r="2" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A2" s="15"/>
       <c r="B2" s="7" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:6" ht="18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A3" s="15"/>
       <c r="C3" s="1" t="s">
         <v>4</v>
       </c>
@@ -1227,7 +1265,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="15"/>
       <c r="C4" s="2" t="s">
         <v>16</v>
       </c>
@@ -1241,7 +1280,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="15"/>
       <c r="C5" s="2" t="s">
         <v>15</v>
       </c>
@@ -1252,7 +1292,8 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="15"/>
       <c r="C6" s="2" t="s">
         <v>13</v>
       </c>
@@ -1260,7 +1301,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="15"/>
       <c r="C7" s="4" t="s">
         <v>17</v>
       </c>
@@ -1268,7 +1310,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="15"/>
       <c r="C8" s="4" t="s">
         <v>18</v>
       </c>
@@ -1276,55 +1319,65 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="15"/>
       <c r="C9" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D9" s="2"/>
     </row>
-    <row r="10" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="15"/>
       <c r="C10" s="4" t="s">
         <v>14</v>
       </c>
       <c r="D10" s="2"/>
     </row>
-    <row r="11" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="15"/>
       <c r="C11" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D11" s="2"/>
     </row>
-    <row r="12" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="15"/>
       <c r="C12" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="15"/>
       <c r="C13" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="15"/>
       <c r="C14" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="15"/>
       <c r="C15" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="15"/>
       <c r="C16" s="4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="15"/>
       <c r="C17" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="2:17" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:17" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A19" s="15"/>
       <c r="B19" s="7" t="s">
         <v>28</v>
       </c>
@@ -1334,7 +1387,8 @@
       <c r="P19" s="1"/>
       <c r="Q19" s="1"/>
     </row>
-    <row r="20" spans="2:17" ht="18" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" ht="18" x14ac:dyDescent="0.25">
+      <c r="A20" s="15"/>
       <c r="C20" s="1" t="s">
         <v>27</v>
       </c>
@@ -1366,7 +1420,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="15"/>
       <c r="C21" s="2" t="s">
         <v>38</v>
       </c>
@@ -1393,7 +1448,8 @@
         <v>92</v>
       </c>
     </row>
-    <row r="22" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="15"/>
       <c r="C22" s="2" t="s">
         <v>39</v>
       </c>
@@ -1419,7 +1475,8 @@
         <v>92</v>
       </c>
     </row>
-    <row r="23" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="15"/>
       <c r="C23" s="2" t="s">
         <v>40</v>
       </c>
@@ -1445,7 +1502,8 @@
         <v>92</v>
       </c>
     </row>
-    <row r="24" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="15"/>
       <c r="C24" s="4" t="s">
         <v>41</v>
       </c>
@@ -1474,7 +1532,8 @@
         <v>92</v>
       </c>
     </row>
-    <row r="25" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="15"/>
       <c r="C25" s="4" t="s">
         <v>48</v>
       </c>
@@ -1500,7 +1559,8 @@
         <v>93</v>
       </c>
     </row>
-    <row r="26" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="15"/>
       <c r="C26" s="4" t="s">
         <v>49</v>
       </c>
@@ -1526,7 +1586,8 @@
         <v>93</v>
       </c>
     </row>
-    <row r="27" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="15"/>
       <c r="C27" s="4" t="s">
         <v>50</v>
       </c>
@@ -1552,7 +1613,8 @@
         <v>93</v>
       </c>
     </row>
-    <row r="28" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="15"/>
       <c r="C28" s="2" t="s">
         <v>51</v>
       </c>
@@ -1578,7 +1640,8 @@
         <v>93</v>
       </c>
     </row>
-    <row r="29" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="15"/>
       <c r="C29" s="2" t="s">
         <v>55</v>
       </c>
@@ -1604,7 +1667,8 @@
         <v>94</v>
       </c>
     </row>
-    <row r="30" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="15"/>
       <c r="C30" s="4" t="s">
         <v>57</v>
       </c>
@@ -1630,7 +1694,8 @@
         <v>94</v>
       </c>
     </row>
-    <row r="31" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="15"/>
       <c r="C31" s="4" t="s">
         <v>58</v>
       </c>
@@ -1659,7 +1724,8 @@
         <v>94</v>
       </c>
     </row>
-    <row r="32" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="15"/>
       <c r="C32" s="4" t="s">
         <v>59</v>
       </c>
@@ -1685,7 +1751,8 @@
         <v>94</v>
       </c>
     </row>
-    <row r="33" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A33" s="15"/>
       <c r="C33" s="4" t="s">
         <v>64</v>
       </c>
@@ -1711,7 +1778,8 @@
         <v>95</v>
       </c>
     </row>
-    <row r="34" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A34" s="15"/>
       <c r="C34" s="4" t="s">
         <v>65</v>
       </c>
@@ -1737,7 +1805,8 @@
         <v>95</v>
       </c>
     </row>
-    <row r="35" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A35" s="15"/>
       <c r="C35" s="6" t="s">
         <v>66</v>
       </c>
@@ -1763,7 +1832,8 @@
         <v>95</v>
       </c>
     </row>
-    <row r="36" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A36" s="15"/>
       <c r="C36" s="6" t="s">
         <v>67</v>
       </c>
@@ -1789,7 +1859,8 @@
         <v>95</v>
       </c>
     </row>
-    <row r="37" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A37" s="15"/>
       <c r="C37" s="6" t="s">
         <v>72</v>
       </c>
@@ -1815,7 +1886,8 @@
         <v>96</v>
       </c>
     </row>
-    <row r="38" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A38" s="15"/>
       <c r="C38" s="6" t="s">
         <v>73</v>
       </c>
@@ -1841,7 +1913,8 @@
         <v>96</v>
       </c>
     </row>
-    <row r="39" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A39" s="15"/>
       <c r="C39" s="6" t="s">
         <v>74</v>
       </c>
@@ -1864,7 +1937,8 @@
         <v>96</v>
       </c>
     </row>
-    <row r="40" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A40" s="15"/>
       <c r="C40" s="6" t="s">
         <v>75</v>
       </c>
@@ -1893,12 +1967,14 @@
         <v>96</v>
       </c>
     </row>
-    <row r="42" spans="2:12" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:12" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A42" s="15"/>
       <c r="B42" s="7" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="43" spans="2:12" ht="18" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" ht="18" x14ac:dyDescent="0.25">
+      <c r="A43" s="15"/>
       <c r="C43" s="1" t="s">
         <v>27</v>
       </c>
@@ -1918,7 +1994,8 @@
         <v>102</v>
       </c>
     </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A44" s="15"/>
       <c r="C44" s="3" t="s">
         <v>103</v>
       </c>
@@ -1933,7 +2010,8 @@
         <v>130</v>
       </c>
     </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A45" s="15"/>
       <c r="C45" s="8" t="s">
         <v>105</v>
       </c>
@@ -1947,7 +2025,8 @@
         <v>130</v>
       </c>
     </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A46" s="15"/>
       <c r="C46" s="8" t="s">
         <v>107</v>
       </c>
@@ -1961,7 +2040,8 @@
         <v>130</v>
       </c>
     </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A47" s="15"/>
       <c r="C47" s="8" t="s">
         <v>108</v>
       </c>
@@ -1975,7 +2055,8 @@
         <v>130</v>
       </c>
     </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A48" s="15"/>
       <c r="C48" s="8" t="s">
         <v>109</v>
       </c>
@@ -1989,7 +2070,8 @@
         <v>131</v>
       </c>
     </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" s="15"/>
       <c r="C49" s="8" t="s">
         <v>111</v>
       </c>
@@ -2003,7 +2085,8 @@
         <v>132</v>
       </c>
     </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" s="15"/>
       <c r="C50" s="8" t="s">
         <v>112</v>
       </c>
@@ -2017,7 +2100,8 @@
         <v>130</v>
       </c>
     </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" s="15"/>
       <c r="C51" s="8" t="s">
         <v>113</v>
       </c>
@@ -2031,7 +2115,8 @@
         <v>130</v>
       </c>
     </row>
-    <row r="52" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" s="15"/>
       <c r="C52" s="8" t="s">
         <v>114</v>
       </c>
@@ -2045,7 +2130,8 @@
         <v>130</v>
       </c>
     </row>
-    <row r="53" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" s="15"/>
       <c r="C53" s="8" t="s">
         <v>115</v>
       </c>
@@ -2059,7 +2145,8 @@
         <v>130</v>
       </c>
     </row>
-    <row r="54" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" s="15"/>
       <c r="C54" s="8" t="s">
         <v>116</v>
       </c>
@@ -2073,7 +2160,8 @@
         <v>130</v>
       </c>
     </row>
-    <row r="55" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55" s="15"/>
       <c r="C55" s="8" t="s">
         <v>117</v>
       </c>
@@ -2087,7 +2175,8 @@
         <v>130</v>
       </c>
     </row>
-    <row r="56" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56" s="15"/>
       <c r="C56" s="8" t="s">
         <v>118</v>
       </c>
@@ -2101,7 +2190,8 @@
         <v>130</v>
       </c>
     </row>
-    <row r="57" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57" s="15"/>
       <c r="C57" s="8" t="s">
         <v>119</v>
       </c>
@@ -2115,7 +2205,8 @@
         <v>130</v>
       </c>
     </row>
-    <row r="58" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58" s="15"/>
       <c r="C58" s="8" t="s">
         <v>120</v>
       </c>
@@ -2129,7 +2220,8 @@
         <v>130</v>
       </c>
     </row>
-    <row r="59" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59" s="15"/>
       <c r="C59" s="8" t="s">
         <v>121</v>
       </c>
@@ -2143,7 +2235,8 @@
         <v>133</v>
       </c>
     </row>
-    <row r="60" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60" s="15"/>
       <c r="C60" s="8" t="s">
         <v>122</v>
       </c>
@@ -2157,7 +2250,8 @@
         <v>130</v>
       </c>
     </row>
-    <row r="61" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61" s="15"/>
       <c r="C61" s="8" t="s">
         <v>123</v>
       </c>
@@ -2171,7 +2265,8 @@
         <v>130</v>
       </c>
     </row>
-    <row r="62" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62" s="15"/>
       <c r="C62" s="8" t="s">
         <v>124</v>
       </c>
@@ -2185,15 +2280,17 @@
         <v>132</v>
       </c>
     </row>
-    <row r="63" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H63" s="9"/>
     </row>
-    <row r="64" spans="2:8" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:8" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A64" s="16"/>
       <c r="B64" s="7" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="65" spans="2:5" ht="18" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" ht="18" x14ac:dyDescent="0.25">
+      <c r="A65" s="16"/>
       <c r="C65" s="1" t="s">
         <v>27</v>
       </c>
@@ -2201,7 +2298,8 @@
         <v>135</v>
       </c>
     </row>
-    <row r="66" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" s="16"/>
       <c r="C66" s="8" t="s">
         <v>136</v>
       </c>
@@ -2209,7 +2307,8 @@
         <v>139</v>
       </c>
     </row>
-    <row r="67" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" s="16"/>
       <c r="C67" s="8" t="s">
         <v>137</v>
       </c>
@@ -2217,12 +2316,17 @@
         <v>138</v>
       </c>
     </row>
-    <row r="69" spans="2:5" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" s="16"/>
+    </row>
+    <row r="69" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A69" s="16"/>
       <c r="B69" s="7" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="70" spans="2:5" ht="18" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" ht="18" x14ac:dyDescent="0.25">
+      <c r="A70" s="16"/>
       <c r="C70" s="1" t="s">
         <v>27</v>
       </c>
@@ -2233,7 +2337,8 @@
         <v>29</v>
       </c>
     </row>
-    <row r="71" spans="2:5" s="9" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" s="9" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A71" s="17"/>
       <c r="C71" s="11" t="s">
         <v>142</v>
       </c>
@@ -2244,7 +2349,8 @@
         <v>159</v>
       </c>
     </row>
-    <row r="72" spans="2:5" s="9" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" s="9" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A72" s="17"/>
       <c r="C72" s="11" t="s">
         <v>144</v>
       </c>
@@ -2255,7 +2361,8 @@
         <v>159</v>
       </c>
     </row>
-    <row r="73" spans="2:5" s="9" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" s="9" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A73" s="17"/>
       <c r="C73" s="9" t="s">
         <v>145</v>
       </c>
@@ -2266,7 +2373,8 @@
         <v>42</v>
       </c>
     </row>
-    <row r="74" spans="2:5" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A74" s="17"/>
       <c r="C74" s="9" t="s">
         <v>146</v>
       </c>
@@ -2277,7 +2385,8 @@
         <v>42</v>
       </c>
     </row>
-    <row r="75" spans="2:5" s="9" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" s="9" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A75" s="17"/>
       <c r="C75" s="9" t="s">
         <v>150</v>
       </c>
@@ -2288,7 +2397,8 @@
         <v>159</v>
       </c>
     </row>
-    <row r="76" spans="2:5" s="9" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" s="9" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A76" s="17"/>
       <c r="C76" s="9" t="s">
         <v>152</v>
       </c>
@@ -2299,7 +2409,8 @@
         <v>42</v>
       </c>
     </row>
-    <row r="77" spans="2:5" s="9" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" s="9" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A77" s="17"/>
       <c r="C77" s="9" t="s">
         <v>153</v>
       </c>
@@ -2310,7 +2421,8 @@
         <v>42</v>
       </c>
     </row>
-    <row r="78" spans="2:5" s="9" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" s="9" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A78" s="17"/>
       <c r="C78" s="9" t="s">
         <v>156</v>
       </c>
@@ -2321,7 +2433,8 @@
         <v>42</v>
       </c>
     </row>
-    <row r="79" spans="2:5" s="9" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" s="9" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A79" s="17"/>
       <c r="C79" s="9" t="s">
         <v>158</v>
       </c>
@@ -2332,7 +2445,8 @@
         <v>159</v>
       </c>
     </row>
-    <row r="80" spans="2:5" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A80" s="17"/>
       <c r="C80" s="9" t="s">
         <v>161</v>
       </c>
@@ -2343,13 +2457,17 @@
         <v>159</v>
       </c>
     </row>
-    <row r="81" spans="2:7" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="82" spans="2:7" s="9" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="17"/>
+    </row>
+    <row r="82" spans="1:7" s="9" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A82" s="17"/>
       <c r="B82" s="7" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="83" spans="2:7" s="9" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" s="9" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A83" s="17"/>
       <c r="C83" s="1" t="s">
         <v>27</v>
       </c>
@@ -2366,7 +2484,8 @@
         <v>166</v>
       </c>
     </row>
-    <row r="84" spans="2:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="17"/>
       <c r="C84" s="9" t="s">
         <v>167</v>
       </c>
@@ -2383,7 +2502,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="85" spans="2:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="17"/>
       <c r="C85" s="9" t="s">
         <v>168</v>
       </c>
@@ -2400,7 +2520,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="86" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A86" s="16"/>
       <c r="C86" s="11" t="s">
         <v>169</v>
       </c>
@@ -2417,7 +2538,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="87" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A87" s="16"/>
       <c r="C87" s="11" t="s">
         <v>170</v>
       </c>
@@ -2434,7 +2556,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="88" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A88" s="16"/>
       <c r="C88" s="11" t="s">
         <v>182</v>
       </c>
@@ -2451,7 +2574,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="89" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A89" s="16"/>
       <c r="C89" s="11" t="s">
         <v>171</v>
       </c>
@@ -2468,7 +2592,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="90" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A90" s="16"/>
       <c r="C90" s="11" t="s">
         <v>172</v>
       </c>
@@ -2485,7 +2610,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="91" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A91" s="16"/>
       <c r="C91" s="11" t="s">
         <v>173</v>
       </c>
@@ -2502,7 +2628,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="92" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A92" s="16"/>
       <c r="C92" s="11" t="s">
         <v>174</v>
       </c>
@@ -2519,7 +2646,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="93" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A93" s="16"/>
       <c r="C93" s="11" t="s">
         <v>175</v>
       </c>
@@ -2536,7 +2664,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="94" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A94" s="16"/>
       <c r="C94" s="11" t="s">
         <v>176</v>
       </c>
@@ -2553,7 +2682,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="95" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A95" s="16"/>
       <c r="C95" s="11" t="s">
         <v>177</v>
       </c>
@@ -2570,12 +2700,17 @@
         <v>4</v>
       </c>
     </row>
-    <row r="97" spans="2:6" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A96" s="16"/>
+    </row>
+    <row r="97" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A97" s="16"/>
       <c r="B97" s="7" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="98" spans="2:6" ht="18" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A98" s="16"/>
       <c r="C98" s="1" t="s">
         <v>27</v>
       </c>
@@ -2589,7 +2724,8 @@
         <v>200</v>
       </c>
     </row>
-    <row r="99" spans="2:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A99" s="16"/>
       <c r="C99" s="11" t="s">
         <v>197</v>
       </c>
@@ -2603,7 +2739,8 @@
         <v>204</v>
       </c>
     </row>
-    <row r="100" spans="2:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A100" s="16"/>
       <c r="C100" s="11" t="s">
         <v>193</v>
       </c>
@@ -2617,7 +2754,8 @@
         <v>205</v>
       </c>
     </row>
-    <row r="101" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A101" s="16"/>
       <c r="C101" s="11" t="s">
         <v>194</v>
       </c>
@@ -2631,7 +2769,8 @@
         <v>206</v>
       </c>
     </row>
-    <row r="102" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A102" s="16"/>
       <c r="C102" s="11" t="s">
         <v>195</v>
       </c>
@@ -2645,7 +2784,8 @@
         <v>207</v>
       </c>
     </row>
-    <row r="103" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A103" s="16"/>
       <c r="C103" s="11" t="s">
         <v>196</v>
       </c>
@@ -2659,12 +2799,17 @@
         <v>208</v>
       </c>
     </row>
-    <row r="105" spans="2:6" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A104" s="16"/>
+    </row>
+    <row r="105" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A105" s="16"/>
       <c r="B105" s="7" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="106" spans="2:6" ht="18" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A106" s="16"/>
       <c r="C106" s="1" t="s">
         <v>210</v>
       </c>
@@ -2672,7 +2817,8 @@
         <v>211</v>
       </c>
     </row>
-    <row r="107" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A107" s="16"/>
       <c r="C107" s="3">
         <v>1</v>
       </c>
@@ -2680,7 +2826,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A108" s="16"/>
       <c r="C108" s="3">
         <v>2</v>
       </c>
@@ -2688,7 +2835,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="109" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A109" s="16"/>
       <c r="C109" s="3">
         <v>3</v>
       </c>
@@ -2696,12 +2844,17 @@
         <v>3</v>
       </c>
     </row>
-    <row r="111" spans="2:6" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A110" s="16"/>
+    </row>
+    <row r="111" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A111" s="16"/>
       <c r="B111" s="7" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="112" spans="2:6" ht="18" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A112" s="16"/>
       <c r="C112" s="1" t="s">
         <v>27</v>
       </c>
@@ -2715,7 +2868,8 @@
         <v>216</v>
       </c>
     </row>
-    <row r="113" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A113" s="16"/>
       <c r="C113" s="3" t="s">
         <v>213</v>
       </c>
@@ -2729,7 +2883,8 @@
         <v>80</v>
       </c>
     </row>
-    <row r="114" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A114" s="16"/>
       <c r="C114" s="3" t="s">
         <v>219</v>
       </c>
@@ -2743,7 +2898,8 @@
         <v>80</v>
       </c>
     </row>
-    <row r="115" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A115" s="16"/>
       <c r="C115" s="8" t="s">
         <v>221</v>
       </c>
@@ -2757,7 +2913,8 @@
         <v>80</v>
       </c>
     </row>
-    <row r="116" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A116" s="16"/>
       <c r="C116" s="8" t="s">
         <v>223</v>
       </c>
@@ -2771,7 +2928,8 @@
         <v>79</v>
       </c>
     </row>
-    <row r="117" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A117" s="16"/>
       <c r="C117" s="8" t="s">
         <v>226</v>
       </c>
@@ -2785,7 +2943,8 @@
         <v>79</v>
       </c>
     </row>
-    <row r="118" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A118" s="16"/>
       <c r="C118" s="8" t="s">
         <v>227</v>
       </c>
@@ -2799,7 +2958,8 @@
         <v>79</v>
       </c>
     </row>
-    <row r="119" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A119" s="16"/>
       <c r="C119" s="8" t="s">
         <v>228</v>
       </c>
@@ -2813,7 +2973,8 @@
         <v>79</v>
       </c>
     </row>
-    <row r="120" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A120" s="16"/>
       <c r="C120" s="8" t="s">
         <v>139</v>
       </c>
@@ -2827,7 +2988,8 @@
         <v>79</v>
       </c>
     </row>
-    <row r="121" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A121" s="16"/>
       <c r="C121" s="8" t="s">
         <v>231</v>
       </c>
@@ -2841,7 +3003,8 @@
         <v>80</v>
       </c>
     </row>
-    <row r="122" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A122" s="16"/>
       <c r="C122" s="8" t="s">
         <v>233</v>
       </c>
@@ -2855,7 +3018,8 @@
         <v>80</v>
       </c>
     </row>
-    <row r="123" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A123" s="16"/>
       <c r="C123" s="8" t="s">
         <v>234</v>
       </c>
@@ -2869,7 +3033,8 @@
         <v>79</v>
       </c>
     </row>
-    <row r="124" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A124" s="16"/>
       <c r="C124" s="8" t="s">
         <v>235</v>
       </c>
@@ -2883,7 +3048,8 @@
         <v>80</v>
       </c>
     </row>
-    <row r="125" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A125" s="16"/>
       <c r="C125" s="8" t="s">
         <v>254</v>
       </c>
@@ -2897,12 +3063,17 @@
         <v>80</v>
       </c>
     </row>
-    <row r="127" spans="2:6" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A126" s="16"/>
+    </row>
+    <row r="127" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A127" s="16"/>
       <c r="B127" s="7" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="128" spans="2:6" ht="18" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A128" s="16"/>
       <c r="C128" s="1" t="s">
         <v>27</v>
       </c>
@@ -2913,7 +3084,8 @@
         <v>200</v>
       </c>
     </row>
-    <row r="129" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A129" s="16"/>
       <c r="C129" s="8" t="s">
         <v>237</v>
       </c>
@@ -2924,7 +3096,8 @@
         <v>238</v>
       </c>
     </row>
-    <row r="130" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A130" s="16"/>
       <c r="C130" s="8" t="s">
         <v>239</v>
       </c>
@@ -2935,7 +3108,8 @@
         <v>240</v>
       </c>
     </row>
-    <row r="131" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A131" s="16"/>
       <c r="C131" s="8" t="s">
         <v>241</v>
       </c>
@@ -2946,7 +3120,8 @@
         <v>242</v>
       </c>
     </row>
-    <row r="132" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A132" s="16"/>
       <c r="C132" s="8" t="s">
         <v>243</v>
       </c>
@@ -2957,7 +3132,8 @@
         <v>247</v>
       </c>
     </row>
-    <row r="133" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A133" s="16"/>
       <c r="C133" s="8" t="s">
         <v>245</v>
       </c>
@@ -2968,7 +3144,8 @@
         <v>248</v>
       </c>
     </row>
-    <row r="134" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A134" s="16"/>
       <c r="C134" s="8" t="s">
         <v>246</v>
       </c>
@@ -2979,7 +3156,8 @@
         <v>249</v>
       </c>
     </row>
-    <row r="135" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A135" s="16"/>
       <c r="C135" s="8" t="s">
         <v>250</v>
       </c>
@@ -2990,7 +3168,8 @@
         <v>251</v>
       </c>
     </row>
-    <row r="136" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A136" s="16"/>
       <c r="C136" s="8" t="s">
         <v>252</v>
       </c>
